--- a/SQL Excel/hard_sql.xlsx
+++ b/SQL Excel/hard_sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\SQL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05323E1C-3FCF-4205-9DD0-74C9E7F5865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E91747-C7E9-47A5-8129-74642A470188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,100 +28,100 @@
     <t>target_column</t>
   </si>
   <si>
-    <t>#TMS_CARICAMENTO#</t>
-  </si>
-  <si>
-    <t>NUM_AA_TT</t>
-  </si>
-  <si>
-    <t>DAT_INIZIO_TT</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ABI</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ABI_LEGACY</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TITOLO_INTERNO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_DEPOSITO_CONTROPARTE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_DEPOSITO_ORDINANTE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DISPOSIZIONE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DISPOSIZIONE_COLLEGATA</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DIVISA_ISO_CONTROVALORE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TIPO_AGGREGAZIONE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_ESD</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_ISD</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ISIN</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_LEI</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_MATCHING</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_MATCHING</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_NDG_CONTROPARTE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_NDG_ORDINANTE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.VAL_NOMINALE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_PIAZZA_DEPOSITARIA</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_RIFERIMENTO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SEGNO_TITOLO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SEGNO_CONTROVALORE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SSA_PROVNNZ_ORIGNR</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_STATO_DISPOSIZIONE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TIPO_TRANSAZIONE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_TRADE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_PIAZZA_REGOLAMENTO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SIST_ALIMNTNT</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_SSC0#.#$BQ_DSNAME_SSCC0D#.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SSA_PROVNNZ</t>
+    <t>202004022359.</t>
+  </si>
+  <si>
+    <t>NUM_AA_TT.</t>
+  </si>
+  <si>
+    <t>DAT_INIZIO_TT.</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ABI</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ABI_LEGACY</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TITOLO_INTERNO</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_DEPOSITO_CONTROPARTE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_DEPOSITO_ORDINANTE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DISPOSIZIONE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DISPOSIZIONE_COLLEGATA</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_DIVISA_ISO_CONTROVALORE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TIPO_AGGREGAZIONE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_ESD</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_ISD</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_ISIN</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_LEI</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_MATCHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_MATCHING</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_NDG_CONTROPARTE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_NDG_ORDINANTE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.VAL_NOMINALE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_PIAZZA_DEPOSITARIA</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_RIFERIMENTO</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SEGNO_TITOLO</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SEGNO_CONTROVALORE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SSA_PROVNNZ_ORIGNR</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_STATO_DISPOSIZIONE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_TIPO_TRANSAZIONE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DAT_TRADE</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.DES_PIAZZA_REGOLAMENTO</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SIST_ALIMNTNT</t>
+  </si>
+  <si>
+    <t>prj-isp-sscc0-appl-svil-001.SSCC0D.TE_SC_RAI_MOVIMENTO_CSDR_TOP_TT.COD_SSA_PROVNNZ</t>
   </si>
   <si>
     <t>num_aa_tt</t>
@@ -509,14 +509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="111.08984375" customWidth="1"/>
-    <col min="2" max="2" width="104.08984375" customWidth="1"/>
+    <col min="1" max="1" width="94.90625" customWidth="1"/>
+    <col min="2" max="2" width="92.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
